--- a/data/pca/factorExposure/factorExposure_2014-11-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004009517314909485</v>
+        <v>-0.01262686395507527</v>
       </c>
       <c r="C2">
-        <v>0.1002253118989178</v>
+        <v>-0.08300622247417642</v>
       </c>
       <c r="D2">
-        <v>0.1147482633814216</v>
+        <v>0.01510484811032001</v>
       </c>
       <c r="E2">
-        <v>-0.1268203478359919</v>
+        <v>-0.1573403069913384</v>
       </c>
       <c r="F2">
-        <v>0.1926678701299732</v>
+        <v>0.03395885501449408</v>
       </c>
       <c r="G2">
-        <v>-0.08509088332418699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04847789364744158</v>
+      </c>
+      <c r="H2">
+        <v>-0.05869479786088433</v>
+      </c>
+      <c r="I2">
+        <v>-0.2301928896607024</v>
+      </c>
+      <c r="J2">
+        <v>0.03308162308128695</v>
+      </c>
+      <c r="K2">
+        <v>-0.09854688609595921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.0341283045614553</v>
+        <v>-0.01993886850750194</v>
       </c>
       <c r="C4">
-        <v>0.1616059900977167</v>
+        <v>-0.1546979553093598</v>
       </c>
       <c r="D4">
-        <v>0.02529217099225409</v>
+        <v>0.04811448804071939</v>
       </c>
       <c r="E4">
-        <v>-0.08379934455861023</v>
+        <v>-0.0691714727806238</v>
       </c>
       <c r="F4">
-        <v>-0.04093531243731253</v>
+        <v>-0.05967910761046336</v>
       </c>
       <c r="G4">
-        <v>0.02205890112695127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.007660735552569285</v>
+      </c>
+      <c r="H4">
+        <v>-0.1144704357564227</v>
+      </c>
+      <c r="I4">
+        <v>-0.1206399336501325</v>
+      </c>
+      <c r="J4">
+        <v>0.06987716496170919</v>
+      </c>
+      <c r="K4">
+        <v>0.1324504325064644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02236811440864061</v>
+        <v>-0.03649001278425019</v>
       </c>
       <c r="C6">
-        <v>0.07309388499693903</v>
+        <v>-0.07333557122080754</v>
       </c>
       <c r="D6">
-        <v>0.05139816280306791</v>
+        <v>0.02072216625788868</v>
       </c>
       <c r="E6">
-        <v>-0.1008335144334882</v>
+        <v>-0.1041430260488265</v>
       </c>
       <c r="F6">
-        <v>-0.01147298508093488</v>
+        <v>0.01975335646227817</v>
       </c>
       <c r="G6">
-        <v>-0.041334895375127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.05372772332766135</v>
+      </c>
+      <c r="H6">
+        <v>-0.03958528343025567</v>
+      </c>
+      <c r="I6">
+        <v>-0.07359210560613547</v>
+      </c>
+      <c r="J6">
+        <v>-0.05946105413485755</v>
+      </c>
+      <c r="K6">
+        <v>0.01908280970941299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.008148530176241049</v>
+        <v>-0.01263511070731343</v>
       </c>
       <c r="C7">
-        <v>0.05095014868212142</v>
+        <v>-0.0653529121158264</v>
       </c>
       <c r="D7">
-        <v>0.01601405208564301</v>
+        <v>0.01282176742086099</v>
       </c>
       <c r="E7">
-        <v>-0.06467611554158244</v>
+        <v>-0.02784218165011258</v>
       </c>
       <c r="F7">
-        <v>-0.003753022896253844</v>
+        <v>-0.02895372120671275</v>
       </c>
       <c r="G7">
-        <v>0.02086125766734705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.06224221402103958</v>
+      </c>
+      <c r="H7">
+        <v>-0.08654668607737474</v>
+      </c>
+      <c r="I7">
+        <v>-0.04351648715922395</v>
+      </c>
+      <c r="J7">
+        <v>0.009687275397092984</v>
+      </c>
+      <c r="K7">
+        <v>0.01019685521262665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01488501799038995</v>
+        <v>0.00790004550197123</v>
       </c>
       <c r="C8">
-        <v>0.0865239392720582</v>
+        <v>-0.07551061609437164</v>
       </c>
       <c r="D8">
-        <v>0.04030846932307218</v>
+        <v>0.04020844729061709</v>
       </c>
       <c r="E8">
-        <v>-0.1212873340715629</v>
+        <v>-0.08056233704658854</v>
       </c>
       <c r="F8">
-        <v>0.07360473211383101</v>
+        <v>-0.02675766530458753</v>
       </c>
       <c r="G8">
-        <v>0.08152224967484405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05171988470721496</v>
+      </c>
+      <c r="H8">
+        <v>-0.03703194232675041</v>
+      </c>
+      <c r="I8">
+        <v>-0.005785390236616666</v>
+      </c>
+      <c r="J8">
+        <v>-0.00524692238717393</v>
+      </c>
+      <c r="K8">
+        <v>0.008072737739723116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0181977074779353</v>
+        <v>-0.01197846106724378</v>
       </c>
       <c r="C9">
-        <v>0.1347552282884196</v>
+        <v>-0.1181093033521222</v>
       </c>
       <c r="D9">
-        <v>0.01396890515655098</v>
+        <v>0.03218399551815436</v>
       </c>
       <c r="E9">
-        <v>-0.06402030396538219</v>
+        <v>-0.03699894451119769</v>
       </c>
       <c r="F9">
-        <v>-0.02883446958781559</v>
+        <v>-0.01319865222727139</v>
       </c>
       <c r="G9">
-        <v>-0.01280860665178558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.005077150956801122</v>
+      </c>
+      <c r="H9">
+        <v>-0.09970553411336033</v>
+      </c>
+      <c r="I9">
+        <v>-0.06079995504680859</v>
+      </c>
+      <c r="J9">
+        <v>0.02498757292331369</v>
+      </c>
+      <c r="K9">
+        <v>0.06242633492756534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2643630819494317</v>
+        <v>-0.2500727090265989</v>
       </c>
       <c r="C10">
-        <v>-0.1030170309944142</v>
+        <v>0.09179120880030105</v>
       </c>
       <c r="D10">
-        <v>0.03149339399994914</v>
+        <v>0.001534251343977608</v>
       </c>
       <c r="E10">
-        <v>0.005343410666982391</v>
+        <v>-0.02253886844790914</v>
       </c>
       <c r="F10">
-        <v>-0.00516759021226791</v>
+        <v>-0.01020909354383526</v>
       </c>
       <c r="G10">
-        <v>0.07207725888699991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.005909194764983972</v>
+      </c>
+      <c r="H10">
+        <v>-0.04306499263853796</v>
+      </c>
+      <c r="I10">
+        <v>0.1634520885476645</v>
+      </c>
+      <c r="J10">
+        <v>0.06815894903495748</v>
+      </c>
+      <c r="K10">
+        <v>0.03084894039395584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01016526348491423</v>
+        <v>-0.0144187957556599</v>
       </c>
       <c r="C11">
-        <v>0.06384579027671221</v>
+        <v>-0.08018613152936535</v>
       </c>
       <c r="D11">
-        <v>0.004572968600454262</v>
+        <v>0.02565391367914285</v>
       </c>
       <c r="E11">
-        <v>-0.04086515057823434</v>
+        <v>-0.008147865960883852</v>
       </c>
       <c r="F11">
-        <v>-0.06069859458304562</v>
+        <v>-0.0110276876878605</v>
       </c>
       <c r="G11">
-        <v>-0.01355973083864919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03119673663490114</v>
+      </c>
+      <c r="H11">
+        <v>-0.03009683877655911</v>
+      </c>
+      <c r="I11">
+        <v>0.03190308256924183</v>
+      </c>
+      <c r="J11">
+        <v>-0.002603132042657551</v>
+      </c>
+      <c r="K11">
+        <v>0.006871683842276611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.01024054055345492</v>
+        <v>-0.01546119546497588</v>
       </c>
       <c r="C12">
-        <v>0.06264618070452579</v>
+        <v>-0.06340879660706387</v>
       </c>
       <c r="D12">
-        <v>-0.00573100727179976</v>
+        <v>0.01560030701741417</v>
       </c>
       <c r="E12">
-        <v>-0.03110109398571014</v>
+        <v>-0.008113340250685266</v>
       </c>
       <c r="F12">
-        <v>-0.04123630139958323</v>
+        <v>0.01802919088701584</v>
       </c>
       <c r="G12">
-        <v>-0.04952295127527092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03662043308369448</v>
+      </c>
+      <c r="H12">
+        <v>-0.03090214648089095</v>
+      </c>
+      <c r="I12">
+        <v>0.01659593654500649</v>
+      </c>
+      <c r="J12">
+        <v>0.006998692688258707</v>
+      </c>
+      <c r="K12">
+        <v>0.01482428069906903</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01641147316609014</v>
+        <v>-0.00462213530192276</v>
       </c>
       <c r="C13">
-        <v>0.09850567334030016</v>
+        <v>-0.1126426211728826</v>
       </c>
       <c r="D13">
-        <v>0.02941290540051907</v>
+        <v>0.02609966901883391</v>
       </c>
       <c r="E13">
-        <v>-0.1430919391913524</v>
+        <v>-0.1481062648766248</v>
       </c>
       <c r="F13">
-        <v>-0.06222931634385854</v>
+        <v>0.08513709211508996</v>
       </c>
       <c r="G13">
-        <v>-0.140424049386847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.09998496200430693</v>
+      </c>
+      <c r="H13">
+        <v>-0.09213760508126151</v>
+      </c>
+      <c r="I13">
+        <v>0.1889262963568689</v>
+      </c>
+      <c r="J13">
+        <v>0.1405450949473768</v>
+      </c>
+      <c r="K13">
+        <v>-0.280679537362946</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01060530828805487</v>
+        <v>-0.01695390832697859</v>
       </c>
       <c r="C14">
-        <v>0.05666059697437904</v>
+        <v>-0.07501276383756465</v>
       </c>
       <c r="D14">
-        <v>0.02024893127409814</v>
+        <v>0.03541649800912106</v>
       </c>
       <c r="E14">
-        <v>-0.06226754580530594</v>
+        <v>-0.0633434726914605</v>
       </c>
       <c r="F14">
-        <v>-0.0224018876912821</v>
+        <v>0.02468928007127125</v>
       </c>
       <c r="G14">
-        <v>-0.07127159545940943</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.09627092680829948</v>
+      </c>
+      <c r="H14">
+        <v>-0.1926220052398104</v>
+      </c>
+      <c r="I14">
+        <v>0.0871490524237446</v>
+      </c>
+      <c r="J14">
+        <v>-0.1431090030968273</v>
+      </c>
+      <c r="K14">
+        <v>-0.06386784495032791</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.002522184088784127</v>
+        <v>0.0003841774540923188</v>
       </c>
       <c r="C15">
-        <v>0.07932492955593672</v>
+        <v>-0.07316180329825554</v>
       </c>
       <c r="D15">
-        <v>0.03750800721568261</v>
+        <v>0.02195640185225721</v>
       </c>
       <c r="E15">
-        <v>-0.09663562709159662</v>
+        <v>-0.05444898054169567</v>
       </c>
       <c r="F15">
-        <v>-0.01534554291554627</v>
+        <v>-0.01386627591643845</v>
       </c>
       <c r="G15">
-        <v>-0.02173540059034349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.04614173077314626</v>
+      </c>
+      <c r="H15">
+        <v>-0.06618229656652494</v>
+      </c>
+      <c r="I15">
+        <v>0.02623099114619787</v>
+      </c>
+      <c r="J15">
+        <v>-0.05366168968807782</v>
+      </c>
+      <c r="K15">
+        <v>0.02422427918368404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01709473964033114</v>
+        <v>-0.0155992370260189</v>
       </c>
       <c r="C16">
-        <v>0.05988660878687908</v>
+        <v>-0.0659750339218145</v>
       </c>
       <c r="D16">
-        <v>0.003893747580495798</v>
+        <v>0.0176065837286106</v>
       </c>
       <c r="E16">
-        <v>-0.02887250338888049</v>
+        <v>-0.002806821886442339</v>
       </c>
       <c r="F16">
-        <v>-0.04376182771393557</v>
+        <v>0.0005640818213958551</v>
       </c>
       <c r="G16">
-        <v>-0.03899920596871487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02871562223204779</v>
+      </c>
+      <c r="H16">
+        <v>-0.02846422084766906</v>
+      </c>
+      <c r="I16">
+        <v>0.01060876404586442</v>
+      </c>
+      <c r="J16">
+        <v>0.002065978406374711</v>
+      </c>
+      <c r="K16">
+        <v>0.008503849575465563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01399570889332447</v>
+        <v>-0.01078983568927399</v>
       </c>
       <c r="C20">
-        <v>0.07158416852617351</v>
+        <v>-0.0830822379093015</v>
       </c>
       <c r="D20">
-        <v>0.03371668844904618</v>
+        <v>0.00880253497166052</v>
       </c>
       <c r="E20">
-        <v>-0.06418682222630041</v>
+        <v>-0.02162591685062072</v>
       </c>
       <c r="F20">
-        <v>-0.08020537167201384</v>
+        <v>-0.02915782029286967</v>
       </c>
       <c r="G20">
-        <v>-0.03807880672285414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.07267807505296313</v>
+      </c>
+      <c r="H20">
+        <v>-0.06419999067080891</v>
+      </c>
+      <c r="I20">
+        <v>-0.01781027828390699</v>
+      </c>
+      <c r="J20">
+        <v>-0.01035605392029824</v>
+      </c>
+      <c r="K20">
+        <v>0.03640167503650479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.006409289096515276</v>
+        <v>-0.01207488548861161</v>
       </c>
       <c r="C21">
-        <v>0.1011509756250259</v>
+        <v>-0.08810723577023701</v>
       </c>
       <c r="D21">
-        <v>0.0581058573835913</v>
+        <v>0.01680665971393858</v>
       </c>
       <c r="E21">
-        <v>-0.02162433470509392</v>
+        <v>-0.05189727554589693</v>
       </c>
       <c r="F21">
-        <v>0.01801266171267511</v>
+        <v>0.07379174291055619</v>
       </c>
       <c r="G21">
-        <v>-0.0541360984573025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01767061147723149</v>
+      </c>
+      <c r="H21">
+        <v>-0.1503878153175001</v>
+      </c>
+      <c r="I21">
+        <v>0.06060496373739317</v>
+      </c>
+      <c r="J21">
+        <v>0.02770072331738891</v>
+      </c>
+      <c r="K21">
+        <v>-0.03932266251760873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.00338250984465586</v>
+        <v>0.01260590698553287</v>
       </c>
       <c r="C22">
-        <v>0.1479842932188276</v>
+        <v>-0.1535020097635836</v>
       </c>
       <c r="D22">
-        <v>0.2832909211091723</v>
+        <v>-0.002688530364333197</v>
       </c>
       <c r="E22">
-        <v>-0.1825320507186679</v>
+        <v>-0.4331558319311193</v>
       </c>
       <c r="F22">
-        <v>0.162832404382284</v>
+        <v>-0.184397756149743</v>
       </c>
       <c r="G22">
-        <v>0.3065498452053947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.2367023539394073</v>
+      </c>
+      <c r="H22">
+        <v>0.3233373412190952</v>
+      </c>
+      <c r="I22">
+        <v>0.1800311732377879</v>
+      </c>
+      <c r="J22">
+        <v>-0.07510050731243885</v>
+      </c>
+      <c r="K22">
+        <v>0.04272506688538806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.003840152267393743</v>
+        <v>0.008735274869890891</v>
       </c>
       <c r="C23">
-        <v>0.1497583194290097</v>
+        <v>-0.1576855785535448</v>
       </c>
       <c r="D23">
-        <v>0.2812724984515939</v>
+        <v>-0.004622748248117738</v>
       </c>
       <c r="E23">
-        <v>-0.1797802236059935</v>
+        <v>-0.4221206844302352</v>
       </c>
       <c r="F23">
-        <v>0.1622107977672005</v>
+        <v>-0.1758566540749085</v>
       </c>
       <c r="G23">
-        <v>0.3061162548260207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.22886061733864</v>
+      </c>
+      <c r="H23">
+        <v>0.301331649717223</v>
+      </c>
+      <c r="I23">
+        <v>0.1751012454212883</v>
+      </c>
+      <c r="J23">
+        <v>-0.06276824595369078</v>
+      </c>
+      <c r="K23">
+        <v>0.03891085970460633</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005985886948320349</v>
+        <v>-0.01482793681975809</v>
       </c>
       <c r="C24">
-        <v>0.07815646998567877</v>
+        <v>-0.07665049409973705</v>
       </c>
       <c r="D24">
-        <v>-0.01053786851443322</v>
+        <v>0.03123921243663463</v>
       </c>
       <c r="E24">
-        <v>-0.04703509251282176</v>
+        <v>-0.007506931797438555</v>
       </c>
       <c r="F24">
-        <v>-0.04857756932765343</v>
+        <v>-0.004845254079523945</v>
       </c>
       <c r="G24">
-        <v>-0.03139639963602986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.03540031444193483</v>
+      </c>
+      <c r="H24">
+        <v>-0.04031956977300398</v>
+      </c>
+      <c r="I24">
+        <v>0.01560101833644178</v>
+      </c>
+      <c r="J24">
+        <v>0.002904536347046843</v>
+      </c>
+      <c r="K24">
+        <v>0.0120918333106799</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.01405058878175473</v>
+        <v>-0.02093718783898752</v>
       </c>
       <c r="C25">
-        <v>0.07352429602846726</v>
+        <v>-0.0751022915824122</v>
       </c>
       <c r="D25">
-        <v>-0.00379220355125969</v>
+        <v>0.02170803131134139</v>
       </c>
       <c r="E25">
-        <v>-0.02316881062460966</v>
+        <v>-0.003631671001449214</v>
       </c>
       <c r="F25">
-        <v>-0.0483096571498562</v>
+        <v>-0.008571417589015419</v>
       </c>
       <c r="G25">
-        <v>-0.01775370706686634</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02816989934914198</v>
+      </c>
+      <c r="H25">
+        <v>-0.03002418004216806</v>
+      </c>
+      <c r="I25">
+        <v>0.04072571217295567</v>
+      </c>
+      <c r="J25">
+        <v>0.003692404039102612</v>
+      </c>
+      <c r="K25">
+        <v>0.003856231409755655</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01434975262725952</v>
+        <v>-0.02219180985592404</v>
       </c>
       <c r="C26">
-        <v>0.05442337810775981</v>
+        <v>-0.06230805009852648</v>
       </c>
       <c r="D26">
-        <v>-0.003069724006253679</v>
+        <v>0.04868618504884194</v>
       </c>
       <c r="E26">
-        <v>-0.05642812013707614</v>
+        <v>-0.006222427647491932</v>
       </c>
       <c r="F26">
-        <v>-0.007047328149350078</v>
+        <v>0.007311622192309694</v>
       </c>
       <c r="G26">
-        <v>-0.03844069304198791</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.02130116899926022</v>
+      </c>
+      <c r="H26">
+        <v>-0.1089775695077093</v>
+      </c>
+      <c r="I26">
+        <v>-0.06559992122672342</v>
+      </c>
+      <c r="J26">
+        <v>0.03648536195858961</v>
+      </c>
+      <c r="K26">
+        <v>0.06065095984793673</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3622353297163623</v>
+        <v>-0.3244429108749088</v>
       </c>
       <c r="C28">
-        <v>-0.1151461707351453</v>
+        <v>0.1088017434750168</v>
       </c>
       <c r="D28">
-        <v>0.0005720707700459423</v>
+        <v>-0.01906102776489625</v>
       </c>
       <c r="E28">
-        <v>0.05854486763137334</v>
+        <v>-0.00696445069719444</v>
       </c>
       <c r="F28">
-        <v>0.02568976265757789</v>
+        <v>-0.02449183481161876</v>
       </c>
       <c r="G28">
-        <v>0.009012012223174144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1037789716772645</v>
+      </c>
+      <c r="H28">
+        <v>-0.09115053338581711</v>
+      </c>
+      <c r="I28">
+        <v>0.04218151023686512</v>
+      </c>
+      <c r="J28">
+        <v>0.1452938517770958</v>
+      </c>
+      <c r="K28">
+        <v>0.006588807629907268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.008560673042611593</v>
+        <v>-0.01102662705036132</v>
       </c>
       <c r="C29">
-        <v>0.05743498689969469</v>
+        <v>-0.07833222732989301</v>
       </c>
       <c r="D29">
-        <v>0.03990945316579024</v>
+        <v>0.03745139335244758</v>
       </c>
       <c r="E29">
-        <v>-0.1099663896738227</v>
+        <v>-0.1045510333277755</v>
       </c>
       <c r="F29">
-        <v>-0.06024540286501714</v>
+        <v>0.02490255467559366</v>
       </c>
       <c r="G29">
-        <v>-0.09766093814384376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1561604447817888</v>
+      </c>
+      <c r="H29">
+        <v>-0.2746751748803477</v>
+      </c>
+      <c r="I29">
+        <v>0.1262645685923833</v>
+      </c>
+      <c r="J29">
+        <v>-0.2192223184709401</v>
+      </c>
+      <c r="K29">
+        <v>-0.1366465462002336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03691668579582869</v>
+        <v>-0.02649197200910021</v>
       </c>
       <c r="C30">
-        <v>0.1750311396120172</v>
+        <v>-0.15332174740664</v>
       </c>
       <c r="D30">
-        <v>0.01338181159067621</v>
+        <v>0.04556125798522227</v>
       </c>
       <c r="E30">
-        <v>-0.08486066965534697</v>
+        <v>-0.05412090263860687</v>
       </c>
       <c r="F30">
-        <v>-0.003909272482078566</v>
+        <v>-0.02508983425882517</v>
       </c>
       <c r="G30">
-        <v>0.02652427606367503</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.00588789098775801</v>
+      </c>
+      <c r="H30">
+        <v>-0.02800341068364442</v>
+      </c>
+      <c r="I30">
+        <v>-0.1025252577619552</v>
+      </c>
+      <c r="J30">
+        <v>0.01084438892547703</v>
+      </c>
+      <c r="K30">
+        <v>0.02459859148919246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.0007132156405190029</v>
+        <v>-0.01088570353941631</v>
       </c>
       <c r="C31">
-        <v>0.09513533259234395</v>
+        <v>-0.09462743073716599</v>
       </c>
       <c r="D31">
-        <v>-0.04310443177438148</v>
+        <v>0.03335279034508662</v>
       </c>
       <c r="E31">
-        <v>0.01689606802122088</v>
+        <v>0.01993012368028467</v>
       </c>
       <c r="F31">
-        <v>0.0236388606092125</v>
+        <v>0.008702400076740887</v>
       </c>
       <c r="G31">
-        <v>0.01950614934580645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.03531945759908983</v>
+      </c>
+      <c r="H31">
+        <v>-0.04445568859557032</v>
+      </c>
+      <c r="I31">
+        <v>0.05332114971628923</v>
+      </c>
+      <c r="J31">
+        <v>-0.001390388245103647</v>
+      </c>
+      <c r="K31">
+        <v>-0.01139370728310605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03221073570096016</v>
+        <v>-0.02427397309269018</v>
       </c>
       <c r="C32">
-        <v>0.08295343063372521</v>
+        <v>-0.07007464462312861</v>
       </c>
       <c r="D32">
-        <v>0.08285074802785973</v>
+        <v>0.01545896045404269</v>
       </c>
       <c r="E32">
-        <v>-0.1259857065502276</v>
+        <v>-0.1246756124577145</v>
       </c>
       <c r="F32">
-        <v>0.03191238523201889</v>
+        <v>0.01758731654934023</v>
       </c>
       <c r="G32">
-        <v>-0.05699431631836017</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02970604304669508</v>
+      </c>
+      <c r="H32">
+        <v>-0.1394439610133235</v>
+      </c>
+      <c r="I32">
+        <v>0.09373893007810398</v>
+      </c>
+      <c r="J32">
+        <v>0.1972624350374401</v>
+      </c>
+      <c r="K32">
+        <v>-0.2575389559425257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01169803229655478</v>
+        <v>-0.01423950744444008</v>
       </c>
       <c r="C33">
-        <v>0.09216510326514843</v>
+        <v>-0.108706203977355</v>
       </c>
       <c r="D33">
-        <v>5.966992943753011e-05</v>
+        <v>0.02970853798412647</v>
       </c>
       <c r="E33">
-        <v>-0.06380410327817281</v>
+        <v>-0.0376216191855662</v>
       </c>
       <c r="F33">
-        <v>-0.01245483301478195</v>
+        <v>-0.01018593376433492</v>
       </c>
       <c r="G33">
-        <v>-0.02479847934383899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03418592850528262</v>
+      </c>
+      <c r="H33">
+        <v>-0.06072523879376557</v>
+      </c>
+      <c r="I33">
+        <v>0.02086163023838466</v>
+      </c>
+      <c r="J33">
+        <v>0.01600484347442916</v>
+      </c>
+      <c r="K33">
+        <v>0.01667989062738271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.00671305979006025</v>
+        <v>-0.0158045159836284</v>
       </c>
       <c r="C34">
-        <v>0.0538893988106255</v>
+        <v>-0.05297818173450723</v>
       </c>
       <c r="D34">
-        <v>0.003422547511292106</v>
+        <v>0.01549729143478283</v>
       </c>
       <c r="E34">
-        <v>-0.02945413897102715</v>
+        <v>-0.005079209715828442</v>
       </c>
       <c r="F34">
-        <v>-0.02719351971831899</v>
+        <v>0.002065536771464364</v>
       </c>
       <c r="G34">
-        <v>-0.03405095654855305</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02941982915877995</v>
+      </c>
+      <c r="H34">
+        <v>-0.008464320312755978</v>
+      </c>
+      <c r="I34">
+        <v>0.01710376405362815</v>
+      </c>
+      <c r="J34">
+        <v>0.007162948571285921</v>
+      </c>
+      <c r="K34">
+        <v>0.01416993461778415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002101384470770062</v>
+        <v>-0.008117792585329761</v>
       </c>
       <c r="C35">
-        <v>0.0104340262835132</v>
+        <v>-0.03722009948017763</v>
       </c>
       <c r="D35">
-        <v>0.009445174738712753</v>
+        <v>0.01185605014634276</v>
       </c>
       <c r="E35">
-        <v>-0.01876458472398392</v>
+        <v>-0.03140130025458001</v>
       </c>
       <c r="F35">
-        <v>-0.01882490555094283</v>
+        <v>-7.172315806906644e-05</v>
       </c>
       <c r="G35">
-        <v>-0.02064480095161773</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.06574843376416092</v>
+      </c>
+      <c r="H35">
+        <v>-0.1374379863400215</v>
+      </c>
+      <c r="I35">
+        <v>0.1251631485392851</v>
+      </c>
+      <c r="J35">
+        <v>-0.1189418095142978</v>
+      </c>
+      <c r="K35">
+        <v>-0.06925801528867372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.005766036388397115</v>
+        <v>-0.01149847547894629</v>
       </c>
       <c r="C36">
-        <v>0.04762914090564733</v>
+        <v>-0.04960525367466592</v>
       </c>
       <c r="D36">
-        <v>-0.004864880339342467</v>
+        <v>0.03739739616377677</v>
       </c>
       <c r="E36">
-        <v>-0.06444154413979358</v>
+        <v>-0.02521301732782043</v>
       </c>
       <c r="F36">
-        <v>-0.006828086506998086</v>
+        <v>-0.002175554958159083</v>
       </c>
       <c r="G36">
-        <v>-0.01750069791161377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02195901460681432</v>
+      </c>
+      <c r="H36">
+        <v>-0.06808117100002832</v>
+      </c>
+      <c r="I36">
+        <v>-0.0198834841744507</v>
+      </c>
+      <c r="J36">
+        <v>0.02086508853558585</v>
+      </c>
+      <c r="K36">
+        <v>0.04421875614190587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.01483834624093519</v>
+        <v>-0.01067213007369575</v>
       </c>
       <c r="C38">
-        <v>0.05410803744022374</v>
+        <v>-0.06631787830636435</v>
       </c>
       <c r="D38">
-        <v>0.00250380747632673</v>
+        <v>0.02901916591089472</v>
       </c>
       <c r="E38">
-        <v>-0.05355525082629823</v>
+        <v>-0.02924802326619593</v>
       </c>
       <c r="F38">
-        <v>-0.004779905239554185</v>
+        <v>-0.04996632247223083</v>
       </c>
       <c r="G38">
-        <v>0.03729807162341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01292238290316971</v>
+      </c>
+      <c r="H38">
+        <v>-0.06466334976799837</v>
+      </c>
+      <c r="I38">
+        <v>0.06319627509215152</v>
+      </c>
+      <c r="J38">
+        <v>0.04012906406215092</v>
+      </c>
+      <c r="K38">
+        <v>0.03991983106754354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005252512884894584</v>
+        <v>-0.01296905167014741</v>
       </c>
       <c r="C39">
-        <v>0.1352585373221562</v>
+        <v>-0.1314807797229919</v>
       </c>
       <c r="D39">
-        <v>0.01502191988226407</v>
+        <v>0.04384102972386601</v>
       </c>
       <c r="E39">
-        <v>-0.06860973851518118</v>
+        <v>-0.02109989948910828</v>
       </c>
       <c r="F39">
-        <v>-0.0572383317749059</v>
+        <v>0.01026087377816562</v>
       </c>
       <c r="G39">
-        <v>-0.03165771859377457</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05657151691306018</v>
+      </c>
+      <c r="H39">
+        <v>-0.03986053790626133</v>
+      </c>
+      <c r="I39">
+        <v>-0.01860697507734614</v>
+      </c>
+      <c r="J39">
+        <v>-0.007318414153576052</v>
+      </c>
+      <c r="K39">
+        <v>0.01242001249112754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.004566770492459198</v>
+        <v>-0.01194687741532735</v>
       </c>
       <c r="C40">
-        <v>0.02934091651188503</v>
+        <v>-0.06159687259798621</v>
       </c>
       <c r="D40">
-        <v>0.03728651998334367</v>
+        <v>0.02366238599279577</v>
       </c>
       <c r="E40">
-        <v>-0.1436723474874576</v>
+        <v>-0.121216066894915</v>
       </c>
       <c r="F40">
-        <v>0.01072189672322957</v>
+        <v>0.01231665962475592</v>
       </c>
       <c r="G40">
-        <v>-0.08054372529059518</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1184334121402433</v>
+      </c>
+      <c r="H40">
+        <v>0.006126759946509701</v>
+      </c>
+      <c r="I40">
+        <v>0.2168405153124534</v>
+      </c>
+      <c r="J40">
+        <v>-0.06947540280628034</v>
+      </c>
+      <c r="K40">
+        <v>0.009212279717331101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01004474811712514</v>
+        <v>-0.02110559428253404</v>
       </c>
       <c r="C41">
-        <v>0.02055930772612775</v>
+        <v>-0.04819682973196644</v>
       </c>
       <c r="D41">
-        <v>-0.00369223875793105</v>
+        <v>0.01041070630874272</v>
       </c>
       <c r="E41">
-        <v>0.01400536747167406</v>
+        <v>0.009936864712535369</v>
       </c>
       <c r="F41">
-        <v>0.007802327670569231</v>
+        <v>-0.007222580773842059</v>
       </c>
       <c r="G41">
-        <v>-0.001620706297201175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00992707910898274</v>
+      </c>
+      <c r="H41">
+        <v>-0.03013608350128172</v>
+      </c>
+      <c r="I41">
+        <v>0.07597523772384449</v>
+      </c>
+      <c r="J41">
+        <v>-0.004429920376097852</v>
+      </c>
+      <c r="K41">
+        <v>-0.005857242068874279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.0001549723803523455</v>
+        <v>-0.01354465532758207</v>
       </c>
       <c r="C43">
-        <v>0.01663953815945331</v>
+        <v>-0.04278975749427529</v>
       </c>
       <c r="D43">
-        <v>0.008479168453959735</v>
+        <v>0.02272383747771095</v>
       </c>
       <c r="E43">
-        <v>-0.03116699031223932</v>
+        <v>-0.00909769191691347</v>
       </c>
       <c r="F43">
-        <v>-0.02288143894240496</v>
+        <v>-0.01559697769556232</v>
       </c>
       <c r="G43">
-        <v>0.000364474805255091</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02401689013247318</v>
+      </c>
+      <c r="H43">
+        <v>-0.04815073912620024</v>
+      </c>
+      <c r="I43">
+        <v>0.04851375320198749</v>
+      </c>
+      <c r="J43">
+        <v>-0.01560843672358704</v>
+      </c>
+      <c r="K43">
+        <v>-0.004270877395235425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01885906710130992</v>
+        <v>-0.006182944131313867</v>
       </c>
       <c r="C44">
-        <v>0.08364542075201485</v>
+        <v>-0.08828613766348034</v>
       </c>
       <c r="D44">
-        <v>0.0595934079314777</v>
+        <v>0.03904983654646254</v>
       </c>
       <c r="E44">
-        <v>-0.102341009989461</v>
+        <v>-0.08531254175710044</v>
       </c>
       <c r="F44">
-        <v>-0.02040213319559088</v>
+        <v>-0.02346188128399404</v>
       </c>
       <c r="G44">
-        <v>0.01341402256251741</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0316706375160859</v>
+      </c>
+      <c r="H44">
+        <v>-0.03972954873741458</v>
+      </c>
+      <c r="I44">
+        <v>-0.07970181346011532</v>
+      </c>
+      <c r="J44">
+        <v>-0.01738093819685051</v>
+      </c>
+      <c r="K44">
+        <v>0.01881190113071145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.001576742696932628</v>
+        <v>-0.003116081553765555</v>
       </c>
       <c r="C46">
-        <v>0.06222930848617392</v>
+        <v>-0.06587866475461322</v>
       </c>
       <c r="D46">
-        <v>0.02170554736766936</v>
+        <v>0.02083375014153292</v>
       </c>
       <c r="E46">
-        <v>-0.06522572066232939</v>
+        <v>-0.02671812979780099</v>
       </c>
       <c r="F46">
-        <v>-0.0446423168573339</v>
+        <v>-0.001316698349293653</v>
       </c>
       <c r="G46">
-        <v>-0.06318251496326355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0559836703009261</v>
+      </c>
+      <c r="H46">
+        <v>-0.1091206173896014</v>
+      </c>
+      <c r="I46">
+        <v>0.06649405616444805</v>
+      </c>
+      <c r="J46">
+        <v>-0.07667636448128912</v>
+      </c>
+      <c r="K46">
+        <v>-0.01686465229082186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.01009241493533323</v>
+        <v>-0.02291423657508627</v>
       </c>
       <c r="C47">
-        <v>0.1190471150843461</v>
+        <v>-0.09981822506026759</v>
       </c>
       <c r="D47">
-        <v>-0.04164390834958091</v>
+        <v>0.03635002552274833</v>
       </c>
       <c r="E47">
-        <v>0.04972147567626874</v>
+        <v>0.0273369027614248</v>
       </c>
       <c r="F47">
-        <v>0.01911072508766617</v>
+        <v>0.009630579147194833</v>
       </c>
       <c r="G47">
-        <v>-0.01995166717009449</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008946999335843107</v>
+      </c>
+      <c r="H47">
+        <v>-0.07691272735926749</v>
+      </c>
+      <c r="I47">
+        <v>0.05758047598137425</v>
+      </c>
+      <c r="J47">
+        <v>0.02806802018078124</v>
+      </c>
+      <c r="K47">
+        <v>-0.0053795365459558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01477972078454507</v>
+        <v>-0.01929862355837456</v>
       </c>
       <c r="C48">
-        <v>0.05043524597933533</v>
+        <v>-0.05622406337568256</v>
       </c>
       <c r="D48">
-        <v>-0.0246548022468257</v>
+        <v>0.04765705930940933</v>
       </c>
       <c r="E48">
-        <v>-0.07052093534907619</v>
+        <v>-0.01490493346031685</v>
       </c>
       <c r="F48">
-        <v>-0.01609346885613692</v>
+        <v>0.000787016789140631</v>
       </c>
       <c r="G48">
-        <v>-0.02022640539053466</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02230659644248635</v>
+      </c>
+      <c r="H48">
+        <v>-0.1110309397794878</v>
+      </c>
+      <c r="I48">
+        <v>-0.05564065127827834</v>
+      </c>
+      <c r="J48">
+        <v>0.04490331693009137</v>
+      </c>
+      <c r="K48">
+        <v>0.04517900439699675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.007735834742982021</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.01539313709824694</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.003715055983299225</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02610042606172591</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.003818284073176347</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.01547433812294771</v>
+      </c>
+      <c r="H49">
+        <v>0.01512758574438772</v>
+      </c>
+      <c r="I49">
+        <v>-0.02783440401850831</v>
+      </c>
+      <c r="J49">
+        <v>-0.02551366796974409</v>
+      </c>
+      <c r="K49">
+        <v>0.01207686716366003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.008309578349053843</v>
+        <v>-0.01425209039983553</v>
       </c>
       <c r="C50">
-        <v>0.09877483387585224</v>
+        <v>-0.0907589469664434</v>
       </c>
       <c r="D50">
-        <v>-0.02469433212017048</v>
+        <v>0.02118837448863533</v>
       </c>
       <c r="E50">
-        <v>0.01559083788062188</v>
+        <v>0.01250402095008733</v>
       </c>
       <c r="F50">
-        <v>0.02046155008920421</v>
+        <v>-0.005321575289745282</v>
       </c>
       <c r="G50">
-        <v>0.03441104966471066</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0281570911394394</v>
+      </c>
+      <c r="H50">
+        <v>-0.06323556255156185</v>
+      </c>
+      <c r="I50">
+        <v>0.06772669767085977</v>
+      </c>
+      <c r="J50">
+        <v>0.04191870039643648</v>
+      </c>
+      <c r="K50">
+        <v>-0.03804400120645836</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.007957452538761071</v>
+        <v>0.005290319109412405</v>
       </c>
       <c r="C51">
-        <v>0.05814268615777302</v>
+        <v>-0.04041666791600843</v>
       </c>
       <c r="D51">
-        <v>0.06193199758056814</v>
+        <v>0.01295875123685584</v>
       </c>
       <c r="E51">
-        <v>-0.07565837542842387</v>
+        <v>-0.04483412945327785</v>
       </c>
       <c r="F51">
-        <v>-0.008507644434993409</v>
+        <v>0.004587333275390457</v>
       </c>
       <c r="G51">
-        <v>-0.004374050722772228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02724614771444001</v>
+      </c>
+      <c r="H51">
+        <v>-0.08880562562427688</v>
+      </c>
+      <c r="I51">
+        <v>-0.1164857906425335</v>
+      </c>
+      <c r="J51">
+        <v>0.04470647351928018</v>
+      </c>
+      <c r="K51">
+        <v>0.009097185046705295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04671552656077584</v>
+        <v>-0.05540431608639565</v>
       </c>
       <c r="C53">
-        <v>0.155001920032402</v>
+        <v>-0.1417808866966838</v>
       </c>
       <c r="D53">
-        <v>-0.08858020743951252</v>
+        <v>0.04848891472171549</v>
       </c>
       <c r="E53">
-        <v>0.05984183726085701</v>
+        <v>0.09284590135493287</v>
       </c>
       <c r="F53">
-        <v>-0.01731874011891306</v>
+        <v>0.0193549424687275</v>
       </c>
       <c r="G53">
-        <v>0.05281251495795935</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05886651900710507</v>
+      </c>
+      <c r="H53">
+        <v>0.006429892023915438</v>
+      </c>
+      <c r="I53">
+        <v>0.0592314492371008</v>
+      </c>
+      <c r="J53">
+        <v>0.06002834118533307</v>
+      </c>
+      <c r="K53">
+        <v>-0.01824706356258865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01224887762509023</v>
+        <v>-0.01638047088979057</v>
       </c>
       <c r="C54">
-        <v>0.06341155952455822</v>
+        <v>-0.0729375995553263</v>
       </c>
       <c r="D54">
-        <v>0.01024135824570943</v>
+        <v>0.003285116181905864</v>
       </c>
       <c r="E54">
-        <v>-0.01285302692329564</v>
+        <v>-0.0008458079391946638</v>
       </c>
       <c r="F54">
-        <v>-0.03214670845176949</v>
+        <v>-0.0003567272530057599</v>
       </c>
       <c r="G54">
-        <v>-0.002315426632837768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02904259997458375</v>
+      </c>
+      <c r="H54">
+        <v>-0.0664620402698203</v>
+      </c>
+      <c r="I54">
+        <v>0.02554208622775508</v>
+      </c>
+      <c r="J54">
+        <v>-0.03662477023346494</v>
+      </c>
+      <c r="K54">
+        <v>-0.03527209999891521</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.03231815959790282</v>
+        <v>-0.03112357521336475</v>
       </c>
       <c r="C55">
-        <v>0.1183045192881824</v>
+        <v>-0.1019815196970561</v>
       </c>
       <c r="D55">
-        <v>-0.08724439846412677</v>
+        <v>0.04954095645251008</v>
       </c>
       <c r="E55">
-        <v>0.0229513483262711</v>
+        <v>0.07708639040918844</v>
       </c>
       <c r="F55">
-        <v>0.01226431989104409</v>
+        <v>0.0252665600540487</v>
       </c>
       <c r="G55">
-        <v>0.0005473152257955196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02607462912804938</v>
+      </c>
+      <c r="H55">
+        <v>-0.0009567679707532132</v>
+      </c>
+      <c r="I55">
+        <v>0.01549371177843423</v>
+      </c>
+      <c r="J55">
+        <v>0.0169682018109923</v>
+      </c>
+      <c r="K55">
+        <v>-0.0135789213225525</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.04322958234947076</v>
+        <v>-0.04445344827934788</v>
       </c>
       <c r="C56">
-        <v>0.1906493524752024</v>
+        <v>-0.1700399606889569</v>
       </c>
       <c r="D56">
-        <v>-0.111807044035274</v>
+        <v>0.06965552248884464</v>
       </c>
       <c r="E56">
-        <v>0.1072902626611082</v>
+        <v>0.1336033492316405</v>
       </c>
       <c r="F56">
-        <v>0.0230295870090441</v>
+        <v>0.0335363345287502</v>
       </c>
       <c r="G56">
-        <v>0.04434593052844779</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1057690300146277</v>
+      </c>
+      <c r="H56">
+        <v>0.02160286450530239</v>
+      </c>
+      <c r="I56">
+        <v>0.005530639835196988</v>
+      </c>
+      <c r="J56">
+        <v>0.04643903265178714</v>
+      </c>
+      <c r="K56">
+        <v>0.0276101650716312</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02719285116773837</v>
+        <v>-0.01521867971779321</v>
       </c>
       <c r="C58">
-        <v>0.2086582629218492</v>
+        <v>-0.1774496010179684</v>
       </c>
       <c r="D58">
-        <v>0.2273406941028596</v>
+        <v>0.005409543224687389</v>
       </c>
       <c r="E58">
-        <v>-0.1369936794231893</v>
+        <v>-0.2638210974873173</v>
       </c>
       <c r="F58">
-        <v>0.05927927030133446</v>
+        <v>-0.09506414551964265</v>
       </c>
       <c r="G58">
-        <v>0.2466099955047019</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1678929425819906</v>
+      </c>
+      <c r="H58">
+        <v>-0.0352846256258191</v>
+      </c>
+      <c r="I58">
+        <v>-0.3720087655412987</v>
+      </c>
+      <c r="J58">
+        <v>0.1552155274217499</v>
+      </c>
+      <c r="K58">
+        <v>-0.2100219789393953</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2776738681263469</v>
+        <v>-0.2835364306710765</v>
       </c>
       <c r="C59">
-        <v>-0.02658310361410858</v>
+        <v>0.04301370268852553</v>
       </c>
       <c r="D59">
-        <v>0.04659952006760511</v>
+        <v>-0.001724683564623072</v>
       </c>
       <c r="E59">
-        <v>-0.02620585952334216</v>
+        <v>-0.04907308562604025</v>
       </c>
       <c r="F59">
-        <v>0.05872012462395892</v>
+        <v>0.0107573749644692</v>
       </c>
       <c r="G59">
-        <v>-0.04344818710250432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01979166914783021</v>
+      </c>
+      <c r="H59">
+        <v>0.02610891438183561</v>
+      </c>
+      <c r="I59">
+        <v>0.02882907088572422</v>
+      </c>
+      <c r="J59">
+        <v>0.03032235069098019</v>
+      </c>
+      <c r="K59">
+        <v>0.04055378955270313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1189578007768813</v>
+        <v>-0.1487482448749785</v>
       </c>
       <c r="C60">
-        <v>0.1333443976457828</v>
+        <v>-0.1486121304488712</v>
       </c>
       <c r="D60">
-        <v>-0.03570569001543321</v>
+        <v>0.03572481330768651</v>
       </c>
       <c r="E60">
-        <v>-0.05515077305716572</v>
+        <v>0.02198038568651509</v>
       </c>
       <c r="F60">
-        <v>-0.1721510444653313</v>
+        <v>0.05352211684187719</v>
       </c>
       <c r="G60">
-        <v>-0.2417220797768881</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2503586489551873</v>
+      </c>
+      <c r="H60">
+        <v>0.2719225882052095</v>
+      </c>
+      <c r="I60">
+        <v>-0.04687888764352543</v>
+      </c>
+      <c r="J60">
+        <v>-0.08233106869487036</v>
+      </c>
+      <c r="K60">
+        <v>0.004433713380077774</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.007668244700628262</v>
+        <v>-0.01816295013492338</v>
       </c>
       <c r="C61">
-        <v>0.09481520244525438</v>
+        <v>-0.1039036112179606</v>
       </c>
       <c r="D61">
-        <v>-0.02283358091331351</v>
+        <v>0.04358931835348164</v>
       </c>
       <c r="E61">
-        <v>-0.04777104770092355</v>
+        <v>0.004687532416708487</v>
       </c>
       <c r="F61">
-        <v>-0.05653755547597582</v>
+        <v>0.004781918736207647</v>
       </c>
       <c r="G61">
-        <v>-0.05292672544791952</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.05367024449597999</v>
+      </c>
+      <c r="H61">
+        <v>-0.04429327231598383</v>
+      </c>
+      <c r="I61">
+        <v>0.02456165715256696</v>
+      </c>
+      <c r="J61">
+        <v>-0.02109695851435947</v>
+      </c>
+      <c r="K61">
+        <v>0.02404492603394796</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0003635420457635399</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.004639724057719359</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003094751714962416</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01474780226820584</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.005092333605750014</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.01756831139669814</v>
+      </c>
+      <c r="H62">
+        <v>-0.007583312291799524</v>
+      </c>
+      <c r="I62">
+        <v>0.001018482932701057</v>
+      </c>
+      <c r="J62">
+        <v>-0.01828975361629356</v>
+      </c>
+      <c r="K62">
+        <v>-0.0003457005253512339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.002944408167277594</v>
+        <v>-0.02213592955877739</v>
       </c>
       <c r="C63">
-        <v>0.06279268306395323</v>
+        <v>-0.07403514289366425</v>
       </c>
       <c r="D63">
-        <v>8.964387204164658e-05</v>
+        <v>0.04405256739279647</v>
       </c>
       <c r="E63">
-        <v>-0.03250013705986544</v>
+        <v>-0.01020689452715945</v>
       </c>
       <c r="F63">
-        <v>-0.03658390665889422</v>
+        <v>0.003288321205009093</v>
       </c>
       <c r="G63">
-        <v>-0.01622931632810575</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.03317419099222507</v>
+      </c>
+      <c r="H63">
+        <v>-0.05645942273163245</v>
+      </c>
+      <c r="I63">
+        <v>0.02931422634613254</v>
+      </c>
+      <c r="J63">
+        <v>-0.004971078945592082</v>
+      </c>
+      <c r="K63">
+        <v>0.04843063534098507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.01427420303396273</v>
+        <v>-0.01886087097553941</v>
       </c>
       <c r="C64">
-        <v>0.1152070444952483</v>
+        <v>-0.1007643300595481</v>
       </c>
       <c r="D64">
-        <v>-0.0446538268492011</v>
+        <v>0.02960219790705887</v>
       </c>
       <c r="E64">
-        <v>-0.02577018469700075</v>
+        <v>-0.01857096384343909</v>
       </c>
       <c r="F64">
-        <v>-0.01651923836063568</v>
+        <v>-0.02818054175768167</v>
       </c>
       <c r="G64">
-        <v>-0.0008307930788879004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.002062887006197137</v>
+      </c>
+      <c r="H64">
+        <v>-0.0341654257025833</v>
+      </c>
+      <c r="I64">
+        <v>0.04272424750742428</v>
+      </c>
+      <c r="J64">
+        <v>0.01666347524707232</v>
+      </c>
+      <c r="K64">
+        <v>0.04103963753664157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02268894305938734</v>
+        <v>-0.02854097282436363</v>
       </c>
       <c r="C65">
-        <v>0.0680048432151269</v>
+        <v>-0.08683654610637431</v>
       </c>
       <c r="D65">
-        <v>0.0399148408323513</v>
+        <v>0.003387899794996475</v>
       </c>
       <c r="E65">
-        <v>-0.06416923375804418</v>
+        <v>-0.06076437208729889</v>
       </c>
       <c r="F65">
-        <v>-0.05446844303431845</v>
+        <v>-0.02847422773420139</v>
       </c>
       <c r="G65">
-        <v>-0.04512665993001295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1095906645875314</v>
+      </c>
+      <c r="H65">
+        <v>0.01834202559612612</v>
+      </c>
+      <c r="I65">
+        <v>-0.08377365438932362</v>
+      </c>
+      <c r="J65">
+        <v>-0.05344857571841308</v>
+      </c>
+      <c r="K65">
+        <v>0.04070697624017911</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.003799569428656097</v>
+        <v>-0.01016040070713303</v>
       </c>
       <c r="C66">
-        <v>0.1605914921254024</v>
+        <v>-0.1609655265686053</v>
       </c>
       <c r="D66">
-        <v>0.05193831183405558</v>
+        <v>0.03022433948877072</v>
       </c>
       <c r="E66">
-        <v>-0.08591174752553039</v>
+        <v>-0.04219898991189072</v>
       </c>
       <c r="F66">
-        <v>-0.04353800715071589</v>
+        <v>0.002178364831247155</v>
       </c>
       <c r="G66">
-        <v>-0.05677142206022089</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04321871880129307</v>
+      </c>
+      <c r="H66">
+        <v>-0.04415746065238573</v>
+      </c>
+      <c r="I66">
+        <v>-0.01981636919124585</v>
+      </c>
+      <c r="J66">
+        <v>-0.00962707039252929</v>
+      </c>
+      <c r="K66">
+        <v>0.02232095396354376</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.01949090925541475</v>
+        <v>-0.02046023024147572</v>
       </c>
       <c r="C67">
-        <v>0.0443460831788629</v>
+        <v>-0.05789737362873218</v>
       </c>
       <c r="D67">
-        <v>-0.04119504691015407</v>
+        <v>0.03493038115543063</v>
       </c>
       <c r="E67">
-        <v>-0.02908004194876428</v>
+        <v>0.004382917346757059</v>
       </c>
       <c r="F67">
-        <v>-0.01404074452611172</v>
+        <v>-0.03628571399204962</v>
       </c>
       <c r="G67">
-        <v>0.02705342184880217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03446628237052567</v>
+      </c>
+      <c r="H67">
+        <v>-0.04003456608943418</v>
+      </c>
+      <c r="I67">
+        <v>0.07443713212940209</v>
+      </c>
+      <c r="J67">
+        <v>0.02801947858721491</v>
+      </c>
+      <c r="K67">
+        <v>0.008039256799208687</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2603415711805065</v>
+        <v>-0.289121921606426</v>
       </c>
       <c r="C68">
-        <v>-0.03911425473907856</v>
+        <v>0.04598388196692823</v>
       </c>
       <c r="D68">
-        <v>0.04558196715635936</v>
+        <v>-0.02652405411029561</v>
       </c>
       <c r="E68">
-        <v>-0.02099048921663137</v>
+        <v>-0.06460686615062286</v>
       </c>
       <c r="F68">
-        <v>0.04757729230639873</v>
+        <v>-0.02135391546607269</v>
       </c>
       <c r="G68">
-        <v>0.07374860776628619</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.04470637293237134</v>
+      </c>
+      <c r="H68">
+        <v>0.02167397945665102</v>
+      </c>
+      <c r="I68">
+        <v>0.02555914366943001</v>
+      </c>
+      <c r="J68">
+        <v>0.01437030595079586</v>
+      </c>
+      <c r="K68">
+        <v>0.06237482371794897</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01242754248993441</v>
+        <v>-0.008926978997873827</v>
       </c>
       <c r="C69">
-        <v>0.1084908510979461</v>
+        <v>-0.08021617276228764</v>
       </c>
       <c r="D69">
-        <v>-0.06806893470655107</v>
+        <v>0.02660599704688569</v>
       </c>
       <c r="E69">
-        <v>0.004506618968178319</v>
+        <v>0.02275850259824432</v>
       </c>
       <c r="F69">
-        <v>0.01717024282245218</v>
+        <v>0.002241909548058683</v>
       </c>
       <c r="G69">
-        <v>0.03390512816132001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.007643234468848565</v>
+      </c>
+      <c r="H69">
+        <v>-0.05746768150406713</v>
+      </c>
+      <c r="I69">
+        <v>0.03295683060506578</v>
+      </c>
+      <c r="J69">
+        <v>0.04242462416390788</v>
+      </c>
+      <c r="K69">
+        <v>-0.002935527263933651</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2863809297974836</v>
+        <v>-0.2785229144625168</v>
       </c>
       <c r="C71">
-        <v>-0.05635354561682746</v>
+        <v>0.07149979421451653</v>
       </c>
       <c r="D71">
-        <v>0.02533186856039528</v>
+        <v>-0.01299387772732995</v>
       </c>
       <c r="E71">
-        <v>-0.006723141053635054</v>
+        <v>-0.03283370232179126</v>
       </c>
       <c r="F71">
-        <v>-0.0133519468297558</v>
+        <v>-0.0376828864678484</v>
       </c>
       <c r="G71">
-        <v>-0.000597790520680805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01406950595744599</v>
+      </c>
+      <c r="H71">
+        <v>-0.0604038620447829</v>
+      </c>
+      <c r="I71">
+        <v>-0.02170047877342272</v>
+      </c>
+      <c r="J71">
+        <v>0.1308584230137493</v>
+      </c>
+      <c r="K71">
+        <v>0.02849210310793554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.03578320445036893</v>
+        <v>-0.05379262559057423</v>
       </c>
       <c r="C72">
-        <v>0.1697014246581478</v>
+        <v>-0.1497236354774908</v>
       </c>
       <c r="D72">
-        <v>0.002891747925457938</v>
+        <v>0.02320998399167975</v>
       </c>
       <c r="E72">
-        <v>-0.08693901177257017</v>
+        <v>-0.009138055538476563</v>
       </c>
       <c r="F72">
-        <v>-0.08413596362745863</v>
+        <v>0.005573055957544093</v>
       </c>
       <c r="G72">
-        <v>-0.009200887636841733</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04561978262690562</v>
+      </c>
+      <c r="H72">
+        <v>0.0250333116327951</v>
+      </c>
+      <c r="I72">
+        <v>-0.05351426106624785</v>
+      </c>
+      <c r="J72">
+        <v>-0.0253294462898677</v>
+      </c>
+      <c r="K72">
+        <v>-0.06073985108466212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09642194234342071</v>
+        <v>-0.1518733039139927</v>
       </c>
       <c r="C73">
-        <v>0.1438643942153276</v>
+        <v>-0.1874391556642757</v>
       </c>
       <c r="D73">
-        <v>-0.07994968511056637</v>
+        <v>0.06111549988551041</v>
       </c>
       <c r="E73">
-        <v>-0.06234414961405741</v>
+        <v>0.09917892082707806</v>
       </c>
       <c r="F73">
-        <v>-0.2613586067830177</v>
+        <v>0.07361259759719208</v>
       </c>
       <c r="G73">
-        <v>-0.3215339790540015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4026712611464498</v>
+      </c>
+      <c r="H73">
+        <v>0.3382293596291553</v>
+      </c>
+      <c r="I73">
+        <v>-0.04078829578671939</v>
+      </c>
+      <c r="J73">
+        <v>0.1126531954589044</v>
+      </c>
+      <c r="K73">
+        <v>-0.1028937347981541</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.02331592047898144</v>
+        <v>-0.03677147595207873</v>
       </c>
       <c r="C74">
-        <v>0.1120890526392658</v>
+        <v>-0.1118352313575158</v>
       </c>
       <c r="D74">
-        <v>-0.10162453835911</v>
+        <v>0.04042724149606514</v>
       </c>
       <c r="E74">
-        <v>0.05464932776234508</v>
+        <v>0.08143388730487869</v>
       </c>
       <c r="F74">
-        <v>0.008962993682777495</v>
+        <v>0.01326959367340015</v>
       </c>
       <c r="G74">
-        <v>0.007422111872949302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.03186797115275505</v>
+      </c>
+      <c r="H74">
+        <v>-0.01131135992817732</v>
+      </c>
+      <c r="I74">
+        <v>0.003491596195191101</v>
+      </c>
+      <c r="J74">
+        <v>0.02227425877738695</v>
+      </c>
+      <c r="K74">
+        <v>0.02540563216743934</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.07979086039134982</v>
+        <v>-0.06410704714234514</v>
       </c>
       <c r="C75">
-        <v>0.1885993640763312</v>
+        <v>-0.1887700922740198</v>
       </c>
       <c r="D75">
-        <v>-0.1906244998222112</v>
+        <v>0.06764688444067718</v>
       </c>
       <c r="E75">
-        <v>0.1680308859714202</v>
+        <v>0.2110566666858742</v>
       </c>
       <c r="F75">
-        <v>0.0541684763575255</v>
+        <v>-0.03283650342720739</v>
       </c>
       <c r="G75">
-        <v>0.1289644904367948</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1673285234788519</v>
+      </c>
+      <c r="H75">
+        <v>0.02555589303372717</v>
+      </c>
+      <c r="I75">
+        <v>0.101735327026283</v>
+      </c>
+      <c r="J75">
+        <v>0.07071123210476277</v>
+      </c>
+      <c r="K75">
+        <v>0.01032457303693565</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.04317800891247282</v>
+        <v>-0.04191962049540834</v>
       </c>
       <c r="C76">
-        <v>0.1337197591095355</v>
+        <v>-0.1351453256434111</v>
       </c>
       <c r="D76">
-        <v>-0.09769632406562885</v>
+        <v>0.06359211571612487</v>
       </c>
       <c r="E76">
-        <v>0.05922555363695155</v>
+        <v>0.1084715566773596</v>
       </c>
       <c r="F76">
-        <v>-0.005172432677884355</v>
+        <v>0.01266198187258253</v>
       </c>
       <c r="G76">
-        <v>-0.02104551041059877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.03388388910466408</v>
+      </c>
+      <c r="H76">
+        <v>-0.00469603217958164</v>
+      </c>
+      <c r="I76">
+        <v>0.0351670730130224</v>
+      </c>
+      <c r="J76">
+        <v>0.0157588728346525</v>
+      </c>
+      <c r="K76">
+        <v>0.1278930424924034</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08085876582901215</v>
+        <v>-0.04622387860123703</v>
       </c>
       <c r="C77">
-        <v>0.1896162695521569</v>
+        <v>-0.295574545169128</v>
       </c>
       <c r="D77">
-        <v>0.6190715487262369</v>
+        <v>-0.9399242319857486</v>
       </c>
       <c r="E77">
-        <v>0.6520939038159324</v>
+        <v>0.09621088527909619</v>
       </c>
       <c r="F77">
-        <v>-0.2745442153706856</v>
+        <v>-0.01629899713749537</v>
       </c>
       <c r="G77">
-        <v>-0.03555146325366884</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.01339297246686719</v>
+      </c>
+      <c r="H77">
+        <v>-0.04699215703053106</v>
+      </c>
+      <c r="I77">
+        <v>0.00519287877170593</v>
+      </c>
+      <c r="J77">
+        <v>-0.003032878794753754</v>
+      </c>
+      <c r="K77">
+        <v>0.01233113260975978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03353708599689377</v>
+        <v>-0.03110977874990416</v>
       </c>
       <c r="C78">
-        <v>0.1732434393424228</v>
+        <v>-0.1306370411943255</v>
       </c>
       <c r="D78">
-        <v>0.003387168835441818</v>
+        <v>0.08222274660347498</v>
       </c>
       <c r="E78">
-        <v>-0.06552392476272689</v>
+        <v>0.005636813462987893</v>
       </c>
       <c r="F78">
-        <v>0.1398982435019086</v>
+        <v>0.04651969329975034</v>
       </c>
       <c r="G78">
-        <v>-0.0473078138985271</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.08661401274715474</v>
+      </c>
+      <c r="H78">
+        <v>-0.1036983755461622</v>
+      </c>
+      <c r="I78">
+        <v>-0.4953835245747467</v>
+      </c>
+      <c r="J78">
+        <v>0.06669235093591744</v>
+      </c>
+      <c r="K78">
+        <v>0.131328042069511</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.06086673954070412</v>
+        <v>-0.06150423682647112</v>
       </c>
       <c r="C79">
-        <v>0.2365717063893314</v>
+        <v>-0.180394216120399</v>
       </c>
       <c r="D79">
-        <v>-0.2104110310166448</v>
+        <v>0.06524386207790579</v>
       </c>
       <c r="E79">
-        <v>0.1783494891305758</v>
+        <v>0.1884282439105359</v>
       </c>
       <c r="F79">
-        <v>0.1607963121634066</v>
+        <v>0.03702078354689637</v>
       </c>
       <c r="G79">
-        <v>0.1064360178202482</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2203228503808378</v>
+      </c>
+      <c r="H79">
+        <v>-0.02600757745871779</v>
+      </c>
+      <c r="I79">
+        <v>0.06915017464784839</v>
+      </c>
+      <c r="J79">
+        <v>0.137679520381759</v>
+      </c>
+      <c r="K79">
+        <v>-0.05905099014764473</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.0002089806771428698</v>
+        <v>-0.01412865217360692</v>
       </c>
       <c r="C80">
-        <v>0.05752217443193119</v>
+        <v>-0.05560074800063535</v>
       </c>
       <c r="D80">
-        <v>-0.004161753398907237</v>
+        <v>0.03521922848309368</v>
       </c>
       <c r="E80">
-        <v>-0.02739337378798844</v>
+        <v>-0.04895908528116469</v>
       </c>
       <c r="F80">
-        <v>-0.01048326817306126</v>
+        <v>0.04959462038622088</v>
       </c>
       <c r="G80">
-        <v>-0.03161733694988125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.05454292907857416</v>
+      </c>
+      <c r="H80">
+        <v>0.03568365117250272</v>
+      </c>
+      <c r="I80">
+        <v>0.09098085132183428</v>
+      </c>
+      <c r="J80">
+        <v>0.03053143491552932</v>
+      </c>
+      <c r="K80">
+        <v>-0.0009755821757067263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.02751396004238401</v>
+        <v>-0.01914286050059796</v>
       </c>
       <c r="C81">
-        <v>0.1158511113654408</v>
+        <v>-0.1120169802421239</v>
       </c>
       <c r="D81">
-        <v>-0.1360419341569375</v>
+        <v>0.04254214226021655</v>
       </c>
       <c r="E81">
-        <v>0.1173492926323087</v>
+        <v>0.098881487278772</v>
       </c>
       <c r="F81">
-        <v>0.03371005604214402</v>
+        <v>0.01225356905272679</v>
       </c>
       <c r="G81">
-        <v>0.02460385086724993</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.09257014369320692</v>
+      </c>
+      <c r="H81">
+        <v>-0.05956219945695662</v>
+      </c>
+      <c r="I81">
+        <v>0.0709459412890399</v>
+      </c>
+      <c r="J81">
+        <v>0.06685858952110225</v>
+      </c>
+      <c r="K81">
+        <v>0.05702173393227728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.04894866273849062</v>
+        <v>-0.04720057078771492</v>
       </c>
       <c r="C82">
-        <v>0.1432174657921801</v>
+        <v>-0.1257395184197142</v>
       </c>
       <c r="D82">
-        <v>-0.1426289074492103</v>
+        <v>0.06615267929761613</v>
       </c>
       <c r="E82">
-        <v>0.07575639115338872</v>
+        <v>0.1179708208653736</v>
       </c>
       <c r="F82">
-        <v>-0.002528893949283123</v>
+        <v>0.02646180760688726</v>
       </c>
       <c r="G82">
-        <v>0.01358893393516866</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.06642933822301474</v>
+      </c>
+      <c r="H82">
+        <v>-0.02209408207761415</v>
+      </c>
+      <c r="I82">
+        <v>0.04466354635506362</v>
+      </c>
+      <c r="J82">
+        <v>0.05608174859128334</v>
+      </c>
+      <c r="K82">
+        <v>0.05627479693155713</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.004048587023269666</v>
+        <v>-0.007787842652123536</v>
       </c>
       <c r="C83">
-        <v>0.04167805754293138</v>
+        <v>-0.01254539070735222</v>
       </c>
       <c r="D83">
-        <v>0.19001869336908</v>
+        <v>-0.04488173939884647</v>
       </c>
       <c r="E83">
-        <v>0.1250610528350996</v>
+        <v>-0.2304026290556644</v>
       </c>
       <c r="F83">
-        <v>0.7095637532396656</v>
+        <v>0.9215899904221173</v>
       </c>
       <c r="G83">
-        <v>-0.5533900197341303</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.1619573345097933</v>
+      </c>
+      <c r="H83">
+        <v>0.06573152525058079</v>
+      </c>
+      <c r="I83">
+        <v>0.0429903053445336</v>
+      </c>
+      <c r="J83">
+        <v>0.02938555320590235</v>
+      </c>
+      <c r="K83">
+        <v>0.1023724501744403</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.000277970087030849</v>
+        <v>0.001183400664723337</v>
       </c>
       <c r="C84">
-        <v>0.03677343472292628</v>
+        <v>-0.0369671200960645</v>
       </c>
       <c r="D84">
-        <v>0.02434138381591638</v>
+        <v>0.0564310527256475</v>
       </c>
       <c r="E84">
-        <v>-0.08371895081767494</v>
+        <v>-0.07041231208340133</v>
       </c>
       <c r="F84">
-        <v>0.00559458310598193</v>
+        <v>-0.047578104735847</v>
       </c>
       <c r="G84">
-        <v>0.123254974819959</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04902019462001905</v>
+      </c>
+      <c r="H84">
+        <v>-0.07892201535221369</v>
+      </c>
+      <c r="I84">
+        <v>0.006740110903630293</v>
+      </c>
+      <c r="J84">
+        <v>-0.1176256524878526</v>
+      </c>
+      <c r="K84">
+        <v>0.1580171998923513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.03974474807416105</v>
+        <v>-0.03243073823130854</v>
       </c>
       <c r="C85">
-        <v>0.1629716838567645</v>
+        <v>-0.1355282349104013</v>
       </c>
       <c r="D85">
-        <v>-0.1624588670440177</v>
+        <v>0.07115044103625255</v>
       </c>
       <c r="E85">
-        <v>0.1351234945026064</v>
+        <v>0.1807090252061783</v>
       </c>
       <c r="F85">
-        <v>0.09835951191390281</v>
+        <v>0.02098252784134768</v>
       </c>
       <c r="G85">
-        <v>0.08013321510429749</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1325450781136691</v>
+      </c>
+      <c r="H85">
+        <v>0.004482321534992496</v>
+      </c>
+      <c r="I85">
+        <v>0.0971061639487546</v>
+      </c>
+      <c r="J85">
+        <v>0.07729717979821507</v>
+      </c>
+      <c r="K85">
+        <v>0.08726576682598505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.04403355347796636</v>
+        <v>-0.02223450334956527</v>
       </c>
       <c r="C86">
-        <v>0.0486234136195744</v>
+        <v>-0.07287590109248539</v>
       </c>
       <c r="D86">
-        <v>0.05617246837075431</v>
+        <v>0.02121512529767457</v>
       </c>
       <c r="E86">
-        <v>-0.0256450981908251</v>
+        <v>-0.04929512182707043</v>
       </c>
       <c r="F86">
-        <v>-0.04084441253578254</v>
+        <v>-0.03649033660582115</v>
       </c>
       <c r="G86">
-        <v>-0.01277564407330707</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0800610678381202</v>
+      </c>
+      <c r="H86">
+        <v>-0.07395490061390818</v>
+      </c>
+      <c r="I86">
+        <v>-0.08603951490734342</v>
+      </c>
+      <c r="J86">
+        <v>0.186815095500543</v>
+      </c>
+      <c r="K86">
+        <v>-0.05664601060536089</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.03969376133892211</v>
+        <v>-0.01986936864866531</v>
       </c>
       <c r="C87">
-        <v>0.1388077696352171</v>
+        <v>-0.1263958505936066</v>
       </c>
       <c r="D87">
-        <v>0.08487776178996861</v>
+        <v>0.001282102390581955</v>
       </c>
       <c r="E87">
-        <v>-0.1025744844859376</v>
+        <v>-0.08948852491953976</v>
       </c>
       <c r="F87">
-        <v>-0.008149146653146307</v>
+        <v>-0.0304172453613761</v>
       </c>
       <c r="G87">
-        <v>-0.02431966957255213</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.005631814905653643</v>
+      </c>
+      <c r="H87">
+        <v>-0.01943919418135752</v>
+      </c>
+      <c r="I87">
+        <v>-0.1617388639451758</v>
+      </c>
+      <c r="J87">
+        <v>-0.1067369168181926</v>
+      </c>
+      <c r="K87">
+        <v>0.1903052165236966</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01767729750082754</v>
+        <v>-0.03698584602457412</v>
       </c>
       <c r="C88">
-        <v>0.06895472538111301</v>
+        <v>-0.08042576420134473</v>
       </c>
       <c r="D88">
-        <v>-0.07978144286154232</v>
+        <v>0.03681545967034134</v>
       </c>
       <c r="E88">
-        <v>0.02122076531132967</v>
+        <v>0.02406887942821221</v>
       </c>
       <c r="F88">
-        <v>-0.02722010760344969</v>
+        <v>-0.002775922408115362</v>
       </c>
       <c r="G88">
-        <v>0.01241411789366374</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.01877144396890701</v>
+      </c>
+      <c r="H88">
+        <v>0.004604936335489977</v>
+      </c>
+      <c r="I88">
+        <v>0.1124661826897471</v>
+      </c>
+      <c r="J88">
+        <v>0.02542494242609612</v>
+      </c>
+      <c r="K88">
+        <v>-0.005931057011569208</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3899302224610176</v>
+        <v>-0.3837900171800166</v>
       </c>
       <c r="C89">
-        <v>-0.08374704761501327</v>
+        <v>0.1089135044620478</v>
       </c>
       <c r="D89">
-        <v>-0.05490613833611794</v>
+        <v>-0.02607575600857138</v>
       </c>
       <c r="E89">
-        <v>-0.1507338434058439</v>
+        <v>-0.03987884262081941</v>
       </c>
       <c r="F89">
-        <v>0.08034452692713595</v>
+        <v>0.06099539095231971</v>
       </c>
       <c r="G89">
-        <v>-0.002668976818002287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02284649196023537</v>
+      </c>
+      <c r="H89">
+        <v>-0.02778024808763154</v>
+      </c>
+      <c r="I89">
+        <v>-0.2618577505786611</v>
+      </c>
+      <c r="J89">
+        <v>-0.5455291262984445</v>
+      </c>
+      <c r="K89">
+        <v>-0.09181718716910046</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3004119347252353</v>
+        <v>-0.3138910801359727</v>
       </c>
       <c r="C90">
-        <v>-0.05385914342127835</v>
+        <v>0.07142890663933582</v>
       </c>
       <c r="D90">
-        <v>0.0399087470079385</v>
+        <v>-0.004157453022471612</v>
       </c>
       <c r="E90">
-        <v>-0.009303231569509225</v>
+        <v>-0.03649450730645326</v>
       </c>
       <c r="F90">
-        <v>0.04356822098712226</v>
+        <v>-0.01165240438499777</v>
       </c>
       <c r="G90">
-        <v>-0.004342712188074667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02058530584694339</v>
+      </c>
+      <c r="H90">
+        <v>0.008822672664931445</v>
+      </c>
+      <c r="I90">
+        <v>0.05973354443454979</v>
+      </c>
+      <c r="J90">
+        <v>0.07842183263232302</v>
+      </c>
+      <c r="K90">
+        <v>0.06987963510328303</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.04540604544113781</v>
+        <v>-0.05275421407671507</v>
       </c>
       <c r="C91">
-        <v>0.1310228825571761</v>
+        <v>-0.1128633576073666</v>
       </c>
       <c r="D91">
-        <v>-0.09263657487358561</v>
+        <v>0.03522218727714886</v>
       </c>
       <c r="E91">
-        <v>0.08526332781375064</v>
+        <v>0.08622241618980384</v>
       </c>
       <c r="F91">
-        <v>0.04638906414485437</v>
+        <v>0.04897537344157775</v>
       </c>
       <c r="G91">
-        <v>0.03054465871251645</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.07206497265956052</v>
+      </c>
+      <c r="H91">
+        <v>0.003535629901419271</v>
+      </c>
+      <c r="I91">
+        <v>0.05132708096360108</v>
+      </c>
+      <c r="J91">
+        <v>0.007913328847582448</v>
+      </c>
+      <c r="K91">
+        <v>0.0106738957593346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.369988547535628</v>
+        <v>-0.3554245829577126</v>
       </c>
       <c r="C92">
-        <v>-0.1175217917754962</v>
+        <v>0.1230877490187962</v>
       </c>
       <c r="D92">
-        <v>0.03829411867622898</v>
+        <v>-0.04005526073518804</v>
       </c>
       <c r="E92">
-        <v>-0.02808230627321502</v>
+        <v>-0.06509181970281902</v>
       </c>
       <c r="F92">
-        <v>-0.05836996743928244</v>
+        <v>-0.0945273266404144</v>
       </c>
       <c r="G92">
-        <v>0.1029229098433708</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03108859345061197</v>
+      </c>
+      <c r="H92">
+        <v>-0.06743066875182087</v>
+      </c>
+      <c r="I92">
+        <v>0.06656781278909675</v>
+      </c>
+      <c r="J92">
+        <v>0.08920809092778975</v>
+      </c>
+      <c r="K92">
+        <v>-0.06786604211075338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3277094896414657</v>
+        <v>-0.3209461513298713</v>
       </c>
       <c r="C93">
-        <v>-0.09465652502781302</v>
+        <v>0.1150698487836312</v>
       </c>
       <c r="D93">
-        <v>-0.02231924623401958</v>
+        <v>0.006084022162377507</v>
       </c>
       <c r="E93">
-        <v>0.002640106714588334</v>
+        <v>-0.002757490341913479</v>
       </c>
       <c r="F93">
-        <v>0.01771260024756351</v>
+        <v>-0.01427134532308273</v>
       </c>
       <c r="G93">
-        <v>-0.01231787456110352</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.04342899948951702</v>
+      </c>
+      <c r="H93">
+        <v>-0.04961824408976353</v>
+      </c>
+      <c r="I93">
+        <v>0.02968404839717362</v>
+      </c>
+      <c r="J93">
+        <v>0.1176104060378834</v>
+      </c>
+      <c r="K93">
+        <v>0.04765098729550774</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.08154012743065785</v>
+        <v>-0.0808598367711907</v>
       </c>
       <c r="C94">
-        <v>0.2125174889524915</v>
+        <v>-0.1886844802136267</v>
       </c>
       <c r="D94">
-        <v>-0.248526148354923</v>
+        <v>0.09229838926019575</v>
       </c>
       <c r="E94">
-        <v>0.1985563785312068</v>
+        <v>0.3107518760690875</v>
       </c>
       <c r="F94">
-        <v>0.1615517235259434</v>
+        <v>0.01809493456140208</v>
       </c>
       <c r="G94">
-        <v>0.1425364637100569</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.3892490587142483</v>
+      </c>
+      <c r="H94">
+        <v>0.1192822166377237</v>
+      </c>
+      <c r="I94">
+        <v>0.03098966018197501</v>
+      </c>
+      <c r="J94">
+        <v>-0.4513348229121849</v>
+      </c>
+      <c r="K94">
+        <v>-0.2840369798892525</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02894742967918726</v>
+        <v>-0.03672511131524995</v>
       </c>
       <c r="C95">
-        <v>0.06039778043121079</v>
+        <v>-0.1086712673141327</v>
       </c>
       <c r="D95">
-        <v>-0.02581139311347364</v>
+        <v>0.03140117825271327</v>
       </c>
       <c r="E95">
-        <v>-0.01252064530798555</v>
+        <v>0.01049071557607301</v>
       </c>
       <c r="F95">
-        <v>-0.1123331181645972</v>
+        <v>-0.03431481018235878</v>
       </c>
       <c r="G95">
-        <v>-0.125625242256486</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.1309595831690223</v>
+      </c>
+      <c r="H95">
+        <v>-0.04905620589420108</v>
+      </c>
+      <c r="I95">
+        <v>0.1092829284618672</v>
+      </c>
+      <c r="J95">
+        <v>-0.157138653859288</v>
+      </c>
+      <c r="K95">
+        <v>0.6314190521950204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.006749063560197277</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01294459635347058</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.02020961717121813</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.01147366605676048</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-0.01895795910898106</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03611909304564546</v>
+      </c>
+      <c r="H97">
+        <v>-0.004240329728457548</v>
+      </c>
+      <c r="I97">
+        <v>-0.002258626920354661</v>
+      </c>
+      <c r="J97">
+        <v>0.03052949835229384</v>
+      </c>
+      <c r="K97">
+        <v>-0.0486831097202316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08260508290256444</v>
+        <v>-0.1331814947179506</v>
       </c>
       <c r="C98">
-        <v>0.1448573117091153</v>
+        <v>-0.1601504201913575</v>
       </c>
       <c r="D98">
-        <v>-0.03081718884971876</v>
+        <v>0.07456040475649024</v>
       </c>
       <c r="E98">
-        <v>-0.06905692670984194</v>
+        <v>0.07259582783334911</v>
       </c>
       <c r="F98">
-        <v>-0.1977855991581416</v>
+        <v>0.03957824893103459</v>
       </c>
       <c r="G98">
-        <v>-0.2400384337137429</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3536195572990022</v>
+      </c>
+      <c r="H98">
+        <v>0.3652833353245994</v>
+      </c>
+      <c r="I98">
+        <v>-0.1061658985773024</v>
+      </c>
+      <c r="J98">
+        <v>0.03862909102160435</v>
+      </c>
+      <c r="K98">
+        <v>-0.1344355188871371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.003681914961029388</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.01168825868187933</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.005365844039194202</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.01392719717715478</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.009999834097921696</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.008170987438688781</v>
+      </c>
+      <c r="H99">
+        <v>-0.05773511161906194</v>
+      </c>
+      <c r="I99">
+        <v>-0.01542347213992621</v>
+      </c>
+      <c r="J99">
+        <v>0.02791725151142182</v>
+      </c>
+      <c r="K99">
+        <v>-0.1825356269681683</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.008992977152444669</v>
+        <v>-0.01121543702766912</v>
       </c>
       <c r="C101">
-        <v>0.05626347109677621</v>
+        <v>-0.07718058511801236</v>
       </c>
       <c r="D101">
-        <v>0.04030166282394759</v>
+        <v>0.03583483827578293</v>
       </c>
       <c r="E101">
-        <v>-0.1086923476954513</v>
+        <v>-0.1046097333212535</v>
       </c>
       <c r="F101">
-        <v>-0.06109176570113199</v>
+        <v>0.0249943911249874</v>
       </c>
       <c r="G101">
-        <v>-0.09683321413309585</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1560422297069436</v>
+      </c>
+      <c r="H101">
+        <v>-0.2736003374928087</v>
+      </c>
+      <c r="I101">
+        <v>0.1249589758081583</v>
+      </c>
+      <c r="J101">
+        <v>-0.2186053759890574</v>
+      </c>
+      <c r="K101">
+        <v>-0.1379630317053996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.0209807274517389</v>
+        <v>-0.007570706711885298</v>
       </c>
       <c r="C102">
-        <v>0.07260185476541228</v>
+        <v>-0.03403473692677232</v>
       </c>
       <c r="D102">
-        <v>-0.05041794937086774</v>
+        <v>0.009784471086555507</v>
       </c>
       <c r="E102">
-        <v>0.04546955119840571</v>
+        <v>0.03611314609883081</v>
       </c>
       <c r="F102">
-        <v>0.02623233357947853</v>
+        <v>0.01556931612539255</v>
       </c>
       <c r="G102">
-        <v>-0.003667450536354848</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0361329524539714</v>
+      </c>
+      <c r="H102">
+        <v>-0.01158058429687181</v>
+      </c>
+      <c r="I102">
+        <v>-0.01414647445613751</v>
+      </c>
+      <c r="J102">
+        <v>-0.01047762781405312</v>
+      </c>
+      <c r="K102">
+        <v>-0.02702893360734842</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
